--- a/EECS 268/LAB 09/Charts.xlsx
+++ b/EECS 268/LAB 09/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\School\3 - 2019 Fall\EECS 268\LAB09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C69F1-BF3A-4C5B-8189-10311337DEF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB542314-7D1B-44BA-B2A7-FA4D654F7AD0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5484" yWindow="-348" windowWidth="11520" windowHeight="8604" xr2:uid="{31906EB9-D0F0-40BA-B2F1-21AA893C1C7D}"/>
+    <workbookView xWindow="34812" yWindow="25188" windowWidth="20544" windowHeight="18708" xr2:uid="{31906EB9-D0F0-40BA-B2F1-21AA893C1C7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -373,7 +373,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -776,57 +775,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.0161636045494314E-2"/>
-                  <c:y val="-7.6709682123067948E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$A$117:$A$127</c:f>
@@ -971,7 +919,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1088,7 +1036,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1315,57 +1263,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.0161636045494314E-2"/>
-                  <c:y val="-7.6709682123067948E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$A$129:$A$139</c:f>
@@ -1510,7 +1407,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1627,7 +1524,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1854,57 +1751,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.0161636045494314E-2"/>
-                  <c:y val="-7.6709682123067948E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$A$141:$A$151</c:f>
@@ -2049,7 +1895,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2166,7 +2012,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2410,8 +2256,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0161636045494314E-2"/>
-                  <c:y val="-7.6709682123067948E-3"/>
+                  <c:x val="-4.4074595904683884E-2"/>
+                  <c:y val="1.3314840965355371E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2588,7 +2434,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2705,7 +2551,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3127,7 +2973,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3244,7 +3090,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3666,7 +3512,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3783,7 +3629,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3870,6 +3716,404 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$155:$A$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>365000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>455000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$155:$D$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.217999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.150999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118.57399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148.238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.46299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CF0-463E-AD3F-4939D2CC067E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="953068664"/>
+        <c:axId val="953071288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="953068664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953071288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="953071288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953068664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4205,8 +4449,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> List</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4322,7 +4571,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4744,7 +4993,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4861,7 +5110,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5283,7 +5532,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5400,7 +5649,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5821,7 +6070,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5938,7 +6187,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6360,7 +6609,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6477,7 +6726,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6899,7 +7148,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7016,7 +7265,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7437,7 +7686,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7554,7 +7803,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7976,7 +8225,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Length Of List</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8093,7 +8342,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Time to Perform Sort (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8494,6 +8743,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12426,6 +12715,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -16559,15 +17364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>542191</xdr:colOff>
+      <xdr:colOff>521409</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9672</xdr:rowOff>
+      <xdr:rowOff>51236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>205154</xdr:colOff>
+      <xdr:colOff>184372</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>117232</xdr:rowOff>
+      <xdr:rowOff>158796</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16633,11 +17438,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>460278</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>187422</xdr:rowOff>
+      <xdr:rowOff>179802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
+      <xdr:colOff>401052</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
@@ -16990,16 +17795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>108292</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365890</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>137083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>562398</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:rowOff>155685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17026,16 +17831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>100379</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>117084</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328979</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>46745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479612</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>73095</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17062,16 +17867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>110343</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368251</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>41029</xdr:rowOff>
+      <xdr:rowOff>169984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464096</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
+      <xdr:rowOff>173777</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17091,6 +17896,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120162</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>439616</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>169985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC25062-0416-46A1-A631-F80423ABCD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21400,29 +22241,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8149A46-A260-4F68-BE06-22B469C2040F}">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>50000</v>
       </c>
@@ -21430,7 +22271,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>95000</v>
       </c>
@@ -21438,7 +22279,7 @@
         <v>7.4320000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>140000</v>
       </c>
@@ -21446,7 +22287,7 @@
         <v>16.265000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>185000</v>
       </c>
@@ -21454,7 +22295,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>230000</v>
       </c>
@@ -21462,7 +22303,7 @@
         <v>43.600999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>275000</v>
       </c>
@@ -21470,7 +22311,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>320000</v>
       </c>
@@ -21478,7 +22319,7 @@
         <v>84.39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>365000</v>
       </c>
@@ -21486,7 +22327,7 @@
         <v>113.21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>410000</v>
       </c>
@@ -21494,7 +22335,7 @@
         <v>159.96700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>455000</v>
       </c>
@@ -21502,7 +22343,7 @@
         <v>195.74799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>500000</v>
       </c>
@@ -21510,7 +22351,7 @@
         <v>237.964</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -21518,7 +22359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>50000</v>
       </c>
@@ -21526,7 +22367,7 @@
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>95000</v>
       </c>
@@ -21534,7 +22375,7 @@
         <v>8.5180000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>140000</v>
       </c>
@@ -21542,7 +22383,7 @@
         <v>17.936</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>185000</v>
       </c>
@@ -21550,7 +22391,7 @@
         <v>31.638999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>230000</v>
       </c>
@@ -21558,7 +22399,7 @@
         <v>50.04</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>275000</v>
       </c>
@@ -21566,7 +22407,7 @@
         <v>71.712000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>320000</v>
       </c>
@@ -21574,7 +22415,7 @@
         <v>95.748999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>365000</v>
       </c>
@@ -21582,7 +22423,7 @@
         <v>109.211</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>410000</v>
       </c>
@@ -21590,7 +22431,7 @@
         <v>136.96799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>455000</v>
       </c>
@@ -21598,7 +22439,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>500000</v>
       </c>
@@ -21606,7 +22447,7 @@
         <v>203.84899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -21614,7 +22455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>50000</v>
       </c>
@@ -21622,7 +22463,7 @@
         <v>2.0470000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>95000</v>
       </c>
@@ -21630,7 +22471,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>140000</v>
       </c>
@@ -21638,7 +22479,7 @@
         <v>16.056000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>185000</v>
       </c>
@@ -21646,7 +22487,7 @@
         <v>28.038</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>230000</v>
       </c>
@@ -21654,7 +22495,7 @@
         <v>43.381</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>275000</v>
       </c>
@@ -21662,7 +22503,7 @@
         <v>61.957999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>320000</v>
       </c>
@@ -21670,7 +22511,7 @@
         <v>83.941000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>365000</v>
       </c>
@@ -21678,7 +22519,7 @@
         <v>109.208</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>410000</v>
       </c>
@@ -21686,7 +22527,7 @@
         <v>138.18799999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>455000</v>
       </c>
@@ -21694,7 +22535,7 @@
         <v>169.863</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>500000</v>
       </c>
@@ -21702,7 +22543,7 @@
         <v>205.40799999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -21710,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -21718,7 +22559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -21726,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>50000</v>
       </c>
@@ -21734,7 +22575,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>95000</v>
       </c>
@@ -21742,7 +22583,7 @@
         <v>4.8470000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>140000</v>
       </c>
@@ -21750,7 +22591,7 @@
         <v>10.486000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>185000</v>
       </c>
@@ -21758,7 +22599,7 @@
         <v>18.355</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>230000</v>
       </c>
@@ -21766,7 +22607,7 @@
         <v>28.42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>275000</v>
       </c>
@@ -21774,7 +22615,7 @@
         <v>40.43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>320000</v>
       </c>
@@ -21782,7 +22623,7 @@
         <v>54.715000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>365000</v>
       </c>
@@ -21790,7 +22631,7 @@
         <v>71.570999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>410000</v>
       </c>
@@ -21798,7 +22639,7 @@
         <v>90.093999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>455000</v>
       </c>
@@ -21806,7 +22647,7 @@
         <v>110.944</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>500000</v>
       </c>
@@ -21814,7 +22655,7 @@
         <v>133.75299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -21822,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>5000000</v>
       </c>
@@ -21830,7 +22671,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>9500000</v>
       </c>
@@ -21838,7 +22679,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>14000000</v>
       </c>
@@ -21846,7 +22687,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>18500000</v>
       </c>
@@ -21854,7 +22695,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>23000000</v>
       </c>
@@ -21862,7 +22703,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>27500000</v>
       </c>
@@ -21870,7 +22711,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>32000000</v>
       </c>
@@ -21878,7 +22719,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>36500000</v>
       </c>
@@ -21886,7 +22727,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>41000000</v>
       </c>
@@ -21894,7 +22735,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>45500000</v>
       </c>
@@ -21902,7 +22743,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>50000000</v>
       </c>
@@ -21910,7 +22751,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -21918,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>50000</v>
       </c>
@@ -21926,7 +22767,7 @@
         <v>2.6629999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>95000</v>
       </c>
@@ -21934,7 +22775,7 @@
         <v>9.6389999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>140000</v>
       </c>
@@ -21942,7 +22783,7 @@
         <v>21.085000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>185000</v>
       </c>
@@ -21950,7 +22791,7 @@
         <v>36.554000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>230000</v>
       </c>
@@ -21958,7 +22799,7 @@
         <v>56.555999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>275000</v>
       </c>
@@ -21966,7 +22807,7 @@
         <v>81.037999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>320000</v>
       </c>
@@ -21974,7 +22815,7 @@
         <v>109.72199999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>365000</v>
       </c>
@@ -21982,7 +22823,7 @@
         <v>142.71600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>410000</v>
       </c>
@@ -21990,7 +22831,7 @@
         <v>180.17500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>455000</v>
       </c>
@@ -21998,7 +22839,7 @@
         <v>222.006</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>500000</v>
       </c>
@@ -22006,7 +22847,7 @@
         <v>268.55099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -22014,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -22022,7 +22863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
@@ -22030,7 +22871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>50000</v>
       </c>
@@ -22038,7 +22879,7 @@
         <v>9.9689999999999994</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>95000</v>
       </c>
@@ -22046,7 +22887,7 @@
         <v>36.222000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>140000</v>
       </c>
@@ -22054,7 +22895,7 @@
         <v>78.662000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>185000</v>
       </c>
@@ -22062,7 +22903,7 @@
         <v>137.529</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>230000</v>
       </c>
@@ -22070,7 +22911,7 @@
         <v>212.501</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>275000</v>
       </c>
@@ -22078,7 +22919,7 @@
         <v>303.76499999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>320000</v>
       </c>
@@ -22086,7 +22927,7 @@
         <v>411.52300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>365000</v>
       </c>
@@ -22094,7 +22935,7 @@
         <v>535.21699999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>410000</v>
       </c>
@@ -22102,7 +22943,7 @@
         <v>675.22799999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>455000</v>
       </c>
@@ -22110,7 +22951,7 @@
         <v>830.79</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>500000</v>
       </c>
@@ -22118,7 +22959,7 @@
         <v>1003.7329999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -22126,7 +22967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>5000000</v>
       </c>
@@ -22134,7 +22975,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>9500000</v>
       </c>
@@ -22142,7 +22983,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>14000000</v>
       </c>
@@ -22150,7 +22991,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>18500000</v>
       </c>
@@ -22158,7 +22999,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>23000000</v>
       </c>
@@ -22166,7 +23007,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>27500000</v>
       </c>
@@ -22174,7 +23015,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>32000000</v>
       </c>
@@ -22182,7 +23023,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>36500000</v>
       </c>
@@ -22190,7 +23031,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>41000000</v>
       </c>
@@ -22198,7 +23039,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>45500000</v>
       </c>
@@ -22206,7 +23047,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>50000000</v>
       </c>
@@ -22214,7 +23055,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -22222,7 +23063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>50000</v>
       </c>
@@ -22230,7 +23071,7 @@
         <v>10.109</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>95000</v>
       </c>
@@ -22238,7 +23079,7 @@
         <v>36.408999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>140000</v>
       </c>
@@ -22246,7 +23087,7 @@
         <v>78.918000000000006</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>185000</v>
       </c>
@@ -22254,7 +23095,7 @@
         <v>137.85499999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>230000</v>
       </c>
@@ -22262,7 +23103,7 @@
         <v>214.29</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>275000</v>
       </c>
@@ -22270,7 +23111,7 @@
         <v>305.58</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>320000</v>
       </c>
@@ -22278,7 +23119,7 @@
         <v>412.16699999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>365000</v>
       </c>
@@ -22286,7 +23127,7 @@
         <v>536.11500000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>410000</v>
       </c>
@@ -22294,7 +23135,7 @@
         <v>678.00300000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>455000</v>
       </c>
@@ -22302,7 +23143,7 @@
         <v>835.18200000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>500000</v>
       </c>
@@ -22310,7 +23151,7 @@
         <v>1009.636</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>8</v>
       </c>
@@ -22318,7 +23159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
@@ -22326,7 +23167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -22334,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>500000</v>
       </c>
@@ -22342,7 +23183,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>10450000</v>
       </c>
@@ -22350,7 +23191,7 @@
         <v>2.0310000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>20400000</v>
       </c>
@@ -22358,7 +23199,7 @@
         <v>4.1029999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>30350000</v>
       </c>
@@ -22366,7 +23207,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>40300000</v>
       </c>
@@ -22374,7 +23215,7 @@
         <v>8.4410000000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>50250000</v>
       </c>
@@ -22382,7 +23223,7 @@
         <v>10.599</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>60200000</v>
       </c>
@@ -22390,7 +23231,7 @@
         <v>12.827</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>70150000</v>
       </c>
@@ -22398,7 +23239,7 @@
         <v>15.106</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>80100000</v>
       </c>
@@ -22406,7 +23247,7 @@
         <v>17.425999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>90050000</v>
       </c>
@@ -22414,7 +23255,7 @@
         <v>19.657</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>100000000</v>
       </c>
@@ -22422,7 +23263,7 @@
         <v>21.879000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -22430,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>500000</v>
       </c>
@@ -22438,7 +23279,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>10450000</v>
       </c>
@@ -22446,7 +23287,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>20400000</v>
       </c>
@@ -22454,7 +23295,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>30350000</v>
       </c>
@@ -22462,7 +23303,7 @@
         <v>2.895</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>40300000</v>
       </c>
@@ -22470,7 +23311,7 @@
         <v>3.915</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>50250000</v>
       </c>
@@ -22478,7 +23319,7 @@
         <v>4.9320000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>60200000</v>
       </c>
@@ -22486,7 +23327,7 @@
         <v>5.9459999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>70150000</v>
       </c>
@@ -22494,7 +23335,7 @@
         <v>6.9969999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>80100000</v>
       </c>
@@ -22502,7 +23343,7 @@
         <v>8.0519999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>90050000</v>
       </c>
@@ -22510,7 +23351,7 @@
         <v>9.1359999999999992</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>100000000</v>
       </c>
@@ -22518,7 +23359,7 @@
         <v>10.154</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
@@ -22526,7 +23367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>500000</v>
       </c>
@@ -22534,7 +23375,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>10450000</v>
       </c>
@@ -22542,7 +23383,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>20400000</v>
       </c>
@@ -22550,7 +23391,7 @@
         <v>1.901</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>30350000</v>
       </c>
@@ -22558,7 +23399,7 @@
         <v>2.8889999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>40300000</v>
       </c>
@@ -22566,7 +23407,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>50250000</v>
       </c>
@@ -22574,7 +23415,7 @@
         <v>4.9189999999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>60200000</v>
       </c>
@@ -22582,7 +23423,7 @@
         <v>6.0010000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>70150000</v>
       </c>
@@ -22590,7 +23431,7 @@
         <v>6.9889999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>80100000</v>
       </c>
@@ -22598,7 +23439,7 @@
         <v>8.0180000000000007</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>90050000</v>
       </c>
@@ -22606,7 +23447,7 @@
         <v>9.0749999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>100000000</v>
       </c>
@@ -22614,7 +23455,7 @@
         <v>10.102</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>8</v>
       </c>
@@ -22622,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>4</v>
       </c>
@@ -22630,7 +23471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
@@ -22638,95 +23479,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>50000</v>
       </c>
       <c r="B155" s="3">
         <v>2.0630000000000002</v>
       </c>
+      <c r="C155">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="D155">
+        <f>B155-C155</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>95000</v>
       </c>
       <c r="B156" s="3">
         <v>7.4640000000000004</v>
       </c>
+      <c r="C156">
+        <v>4.1520000000000001</v>
+      </c>
+      <c r="D156">
+        <f t="shared" ref="D156:D189" si="0">B156-C156</f>
+        <v>3.3120000000000003</v>
+      </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>140000</v>
       </c>
       <c r="B157" s="3">
         <v>16.164000000000001</v>
       </c>
+      <c r="C157">
+        <v>6.3259999999999996</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="0"/>
+        <v>9.838000000000001</v>
+      </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>185000</v>
       </c>
       <c r="B158" s="3">
         <v>28.239000000000001</v>
       </c>
+      <c r="C158">
+        <v>8.5559999999999992</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="0"/>
+        <v>19.683</v>
+      </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>230000</v>
       </c>
       <c r="B159" s="3">
         <v>43.59</v>
       </c>
+      <c r="C159">
+        <v>10.827999999999999</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="0"/>
+        <v>32.762</v>
+      </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>275000</v>
       </c>
       <c r="B160" s="3">
         <v>62.351999999999997</v>
       </c>
+      <c r="C160">
+        <v>13.134</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="0"/>
+        <v>49.217999999999996</v>
+      </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>320000</v>
       </c>
       <c r="B161" s="3">
         <v>84.507999999999996</v>
       </c>
+      <c r="C161">
+        <v>15.468</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="0"/>
+        <v>69.039999999999992</v>
+      </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>365000</v>
       </c>
       <c r="B162" s="3">
         <v>109.97799999999999</v>
       </c>
+      <c r="C162">
+        <v>17.827000000000002</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="0"/>
+        <v>92.150999999999996</v>
+      </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>410000</v>
       </c>
       <c r="B163" s="3">
         <v>138.78399999999999</v>
       </c>
+      <c r="C163">
+        <v>20.21</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="0"/>
+        <v>118.57399999999998</v>
+      </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>455000</v>
       </c>
       <c r="B164" s="3">
         <v>170.84299999999999</v>
       </c>
+      <c r="C164">
+        <v>22.605</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="0"/>
+        <v>148.238</v>
+      </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>500000</v>
       </c>
       <c r="B165" s="3">
         <v>206.483</v>
       </c>
+      <c r="C165">
+        <v>25.02</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="0"/>
+        <v>181.46299999999999</v>
+      </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>6</v>
       </c>
@@ -22734,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>50000</v>
       </c>
@@ -22742,7 +23660,7 @@
         <v>2.0409999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>95000</v>
       </c>
@@ -22750,7 +23668,7 @@
         <v>7.3620000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>140000</v>
       </c>
@@ -22758,7 +23676,7 @@
         <v>15.988</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>185000</v>
       </c>
@@ -22766,7 +23684,7 @@
         <v>27.925999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>230000</v>
       </c>
@@ -22774,7 +23692,7 @@
         <v>43.203000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>275000</v>
       </c>
@@ -22782,7 +23700,7 @@
         <v>61.670999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>320000</v>
       </c>
@@ -22790,7 +23708,7 @@
         <v>83.48</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>365000</v>
       </c>
@@ -22798,7 +23716,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>410000</v>
       </c>
@@ -22806,7 +23724,7 @@
         <v>137.76400000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>455000</v>
       </c>
@@ -22814,7 +23732,7 @@
         <v>169.50299999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>500000</v>
       </c>
@@ -22822,7 +23740,7 @@
         <v>204.62299999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>7</v>
       </c>
@@ -22830,7 +23748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>50000</v>
       </c>
@@ -22838,7 +23756,7 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>95000</v>
       </c>
@@ -22846,7 +23764,7 @@
         <v>7.4130000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>140000</v>
       </c>
@@ -22854,7 +23772,7 @@
         <v>16.114000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>185000</v>
       </c>
@@ -22862,7 +23780,7 @@
         <v>28.099</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>230000</v>
       </c>
@@ -22870,7 +23788,7 @@
         <v>43.427999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>275000</v>
       </c>
@@ -22878,7 +23796,7 @@
         <v>62.128</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>320000</v>
       </c>
@@ -22886,7 +23804,7 @@
         <v>84.128</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>365000</v>
       </c>
@@ -22894,7 +23812,7 @@
         <v>109.729</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>410000</v>
       </c>
@@ -22902,7 +23820,7 @@
         <v>138.21600000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>455000</v>
       </c>
@@ -22910,7 +23828,7 @@
         <v>170.435</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>500000</v>
       </c>
@@ -22931,74 +23849,74 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
     </row>
   </sheetData>
